--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_AnhQuynhYB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_AnhQuynhYB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang4\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang4\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="26" r:id="rId1"/>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1193,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44260</v>
+        <v>44291</v>
       </c>
       <c r="C6" s="37">
-        <v>44260</v>
+        <v>44291</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>68</v>
@@ -2762,6 +2762,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2773,13 +2780,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2790,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -4547,13 +4547,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4565,6 +4558,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_AnhQuynhYB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang4/02.XuLyBH/XLBH2104_AnhQuynhYB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="26" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -601,9 +601,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,9 +631,24 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,21 +668,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -979,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -993,7 +990,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="62" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1012,46 +1009,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1076,7 +1073,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1093,58 +1090,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="48" t="s">
         <v>1</v>
       </c>
@@ -1166,26 +1163,26 @@
       <c r="H5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,12 +1201,12 @@
       <c r="E6" s="39">
         <v>202007281412526</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1237,7 +1234,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="47"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1253,10 +1250,10 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="56"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="1"/>
       <c r="K7" s="43"/>
       <c r="L7" s="40"/>
@@ -1268,7 +1265,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="47"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1282,10 +1279,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="56"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
@@ -1297,7 +1294,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="47"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1311,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -1326,7 +1323,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="47"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1343,7 +1340,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1355,7 +1352,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1372,7 +1369,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1384,7 +1381,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="47"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1401,7 +1398,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1413,7 +1410,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="47"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1432,7 +1429,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1444,7 +1441,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="47"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1461,7 +1458,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="54"/>
+      <c r="I14" s="53"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1473,7 +1470,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="47"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1487,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1502,7 +1499,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1531,7 +1528,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +1545,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1575,7 +1572,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1602,7 +1599,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1633,7 +1630,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1665,7 +1662,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1697,7 +1694,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1729,7 +1726,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1756,7 +1753,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1783,7 +1780,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1814,7 +1811,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1846,7 +1843,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="59"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1878,7 +1875,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -1910,7 +1907,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -1942,7 +1939,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="59"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1974,7 +1971,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2006,7 +2003,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="59"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2038,7 +2035,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="59"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2070,7 +2067,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="59"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2102,7 +2099,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="59"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2134,7 +2131,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="59"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2166,7 +2163,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2198,7 +2195,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="59"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2225,7 +2222,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2252,7 +2249,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="59"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2284,7 +2281,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2316,7 +2313,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2343,7 +2340,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2370,7 +2367,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2406,7 +2403,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2445,7 +2442,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2484,7 +2481,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2523,7 +2520,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2565,7 +2562,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="59"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2593,7 +2590,7 @@
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="60"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2621,7 +2618,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2649,7 +2646,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2677,7 +2674,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2705,7 +2702,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="61"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2733,7 +2730,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2762,13 +2759,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2780,6 +2770,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2790,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2823,43 +2820,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2904,58 +2901,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="51"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2980,49 +2977,75 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44291</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44291</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="39">
+        <v>202007281412526</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3053,7 +3076,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3075,14 +3098,14 @@
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="55"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3111,7 +3134,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3140,7 +3163,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3157,7 +3180,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="40"/>
       <c r="K11" s="43"/>
       <c r="L11" s="40"/>
@@ -3169,7 +3192,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3198,7 +3221,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="63" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3229,7 +3252,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3258,7 +3281,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3287,7 +3310,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="64"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3316,7 +3339,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="65"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +3458,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3872,7 +3895,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3968,7 +3991,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4547,6 +4570,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4558,13 +4588,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
